--- a/MQP_PCB/Project Outputs for MQP_PCB/BOM/Bill of Materials-PCB_Main.xlsx
+++ b/MQP_PCB/Project Outputs for MQP_PCB/BOM/Bill of Materials-PCB_Main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\temp\Documents\WPI\MQP\Github\MPPT_MQP_PCB\MQP_PCB\Project Outputs for MQP_PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED967741-E881-4E61-8E8F-7344ED575A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3355BB6-E852-4A68-A7BB-8B7C1A5C45F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4272" yWindow="2046" windowWidth="17280" windowHeight="8994" xr2:uid="{1F1D9241-9815-42AC-BDC9-C585CDA654F0}"/>
+    <workbookView xWindow="4272" yWindow="2046" windowWidth="17280" windowHeight="8994" xr2:uid="{9F688237-D40F-4B80-9985-F8C71D30AF45}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PCB_Main" sheetId="1" r:id="rId1"/>
@@ -1663,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8242F40F-8F9B-4234-AC06-D539DB63A628}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CF945B-199E-44E7-9336-36957FF176FA}">
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/MQP_PCB/Project Outputs for MQP_PCB/BOM/Bill of Materials-PCB_Main.xlsx
+++ b/MQP_PCB/Project Outputs for MQP_PCB/BOM/Bill of Materials-PCB_Main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\temp\Documents\WPI\MQP\Github\MPPT_MQP_PCB\MQP_PCB\Project Outputs for MQP_PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3355BB6-E852-4A68-A7BB-8B7C1A5C45F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC85AEA-F76F-4C80-AA84-EA1848A0BB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4272" yWindow="2046" windowWidth="17280" windowHeight="8994" xr2:uid="{9F688237-D40F-4B80-9985-F8C71D30AF45}"/>
+    <workbookView xWindow="4272" yWindow="2046" windowWidth="17280" windowHeight="8994" xr2:uid="{5CEC0046-EF1A-4F7D-8320-B307F70DD231}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PCB_Main" sheetId="1" r:id="rId1"/>
@@ -1663,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CF945B-199E-44E7-9336-36957FF176FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75900455-02EA-4D02-AC33-56872B52F304}">
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/MQP_PCB/Project Outputs for MQP_PCB/BOM/Bill of Materials-PCB_Main.xlsx
+++ b/MQP_PCB/Project Outputs for MQP_PCB/BOM/Bill of Materials-PCB_Main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\temp\Documents\WPI\MQP\Github\MPPT_MQP_PCB\MQP_PCB\Project Outputs for MQP_PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFC85AEA-F76F-4C80-AA84-EA1848A0BB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33FEA987-783F-4527-A33C-C203ED4F8002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4272" yWindow="2046" windowWidth="17280" windowHeight="8994" xr2:uid="{5CEC0046-EF1A-4F7D-8320-B307F70DD231}"/>
+    <workbookView xWindow="4272" yWindow="2046" windowWidth="17280" windowHeight="8994" xr2:uid="{405B0790-9B2F-4A76-A511-EA4959578477}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PCB_Main" sheetId="1" r:id="rId1"/>
@@ -1663,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75900455-02EA-4D02-AC33-56872B52F304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68E31B0-9D12-4A2F-AFAD-DD643AE8B9DE}">
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/MQP_PCB/Project Outputs for MQP_PCB/BOM/Bill of Materials-PCB_Main.xlsx
+++ b/MQP_PCB/Project Outputs for MQP_PCB/BOM/Bill of Materials-PCB_Main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\temp\Documents\WPI\MQP\Github\MPPT_MQP_PCB\MQP_PCB\Project Outputs for MQP_PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33FEA987-783F-4527-A33C-C203ED4F8002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A93BD37B-FFC3-47E8-830C-9B8AC67D40F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4272" yWindow="2046" windowWidth="17280" windowHeight="8994" xr2:uid="{405B0790-9B2F-4A76-A511-EA4959578477}"/>
+    <workbookView xWindow="4272" yWindow="2046" windowWidth="17280" windowHeight="8994" xr2:uid="{4F6DA91D-553D-45BE-A125-6D3CDFAAD496}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PCB_Main" sheetId="1" r:id="rId1"/>
@@ -1663,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68E31B0-9D12-4A2F-AFAD-DD643AE8B9DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4B91AC-FD6C-4B57-A8AF-05DEC7FE0512}">
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
